--- a/完成度日志/李成迪完成度20240603.xlsx
+++ b/完成度日志/李成迪完成度20240603.xlsx
@@ -58,10 +58,10 @@
     <t>B</t>
   </si>
   <si>
+    <t>CMake</t>
+  </si>
+  <si>
     <t>B和A之间</t>
-  </si>
-  <si>
-    <t>CMake</t>
   </si>
   <si>
     <t>Python</t>
@@ -1179,7 +1179,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1225,20 +1225,20 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1298,7 +1298,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1579,7 +1579,7 @@
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5">
